--- a/static/excel/推广批量上传模板.xlsx
+++ b/static/excel/推广批量上传模板.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K1"/>
+  <dimension ref="A1:L1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -492,6 +492,11 @@
       <c r="K1" s="1" t="inlineStr">
         <is>
           <t>合作时间</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>账号自营</t>
         </is>
       </c>
     </row>
@@ -506,7 +511,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:A8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -532,6 +537,41 @@
       <c r="A3" t="inlineStr">
         <is>
           <t>纯佣</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>付费-佣金</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>阶梯付费</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>置换</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>直发</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>寄样测品</t>
         </is>
       </c>
     </row>
@@ -614,7 +654,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:A11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -633,6 +673,69 @@
       <c r="A2" t="inlineStr">
         <is>
           <t>单篇图文</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>图文合集</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>图文报备</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>单篇视频</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>视频合集</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>视频报备</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>直播</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>视频/直播</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>寄样测品</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>橱窗带货</t>
         </is>
       </c>
     </row>
@@ -715,7 +818,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:A12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -733,7 +836,77 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>镜框胶水</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>除胶宝-赠品</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
           <t>手办胶水</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>除胶剂组合</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>鞋胶组合</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>万能胶水</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>手工胶水</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>塑料胶水</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>玩具胶水</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>木头胶水</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>免钉胶水</t>
         </is>
       </c>
     </row>

--- a/static/excel/推广批量上传模板.xlsx
+++ b/static/excel/推广批量上传模板.xlsx
@@ -456,12 +456,12 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>平台</t>
+          <t>*平台</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>推广产品，多个产品,隔开</t>
+          <t>*推广产品，多个产品,隔开</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
@@ -481,7 +481,7 @@
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>图文链接</t>
+          <t>*图文链接</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
@@ -496,7 +496,7 @@
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>账号自营</t>
+          <t>*账号自营</t>
         </is>
       </c>
     </row>
@@ -750,7 +750,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A7"/>
+  <dimension ref="A1:A9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -804,6 +804,20 @@
       <c r="A7" t="inlineStr">
         <is>
           <t>蓝希茹</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>郑友慈</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>洪颖</t>
         </is>
       </c>
     </row>
@@ -818,7 +832,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A12"/>
+  <dimension ref="A1:A13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -910,6 +924,13 @@
         </is>
       </c>
     </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>啫喱胶水</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/static/excel/推广批量上传模板.xlsx
+++ b/static/excel/推广批量上传模板.xlsx
@@ -8,11 +8,7 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="推广模板" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="费用类型" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="推广平台" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="输出类型" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="推广员可选" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="产品可选" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="产品可选" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -430,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L1"/>
+  <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,62 +437,12 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>推广人</t>
+          <t>推广产品</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>博主微信</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>账号主页链接</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>*平台</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>*推广产品，多个产品,隔开</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>付费形式</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>费用</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>佣金</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
           <t>*图文链接</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>产出形式</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>合作时间</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>*账号自营</t>
         </is>
       </c>
     </row>
@@ -506,327 +452,6 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>费用类型</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>付费</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>纯佣</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>付费-佣金</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>阶梯付费</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>置换</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>直发</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>寄样测品</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>推广平台</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>小红书</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>抖音</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>拼多多</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>其它</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>淘宝</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>快手</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>输出类型</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>单篇图文</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>图文合集</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>图文报备</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>单篇视频</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>视频合集</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>视频报备</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>直播</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>视频/直播</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>寄样测品</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>橱窗带货</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>推广员可选</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>赵延腾</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>邹丽平</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>胡晓丹</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>赵婷</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>番茄</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>蓝希茹</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>郑友慈</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>洪颖</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
